--- a/3.Js/react/ER-System/checklist/Checklist_code.xlsx
+++ b/3.Js/react/ER-System/checklist/Checklist_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 001\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\training_web\3.Js\react\ER-System\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,24 +183,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Code Review Checklist</t>
   </si>
   <si>
-    <t>Project Code: React Checklist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version of the work product: </t>
-  </si>
-  <si>
-    <t>Developer:</t>
-  </si>
-  <si>
     <t>Reviewer(s):</t>
-  </si>
-  <si>
-    <t>Review date:</t>
   </si>
   <si>
     <t xml:space="preserve">Number of line code: </t>
@@ -559,7 +547,16 @@
     <t>x</t>
   </si>
   <si>
-    <t>cần góp ý thêm</t>
+    <t>Version of the work product: 0.1</t>
+  </si>
+  <si>
+    <t>Developer:duyttt</t>
+  </si>
+  <si>
+    <t>Project Code: Omproject</t>
+  </si>
+  <si>
+    <t>Review date: 2020-10-08</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="3" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1657,7 +1654,7 @@
     </row>
     <row r="4" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="5" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="6" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1747,7 +1744,7 @@
     </row>
     <row r="7" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1777,7 +1774,7 @@
     </row>
     <row r="8" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="9" spans="1:26" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1865,22 +1862,22 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -1935,10 +1932,10 @@
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1967,10 +1964,10 @@
     </row>
     <row r="14" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1999,10 +1996,10 @@
     </row>
     <row r="15" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -2061,10 +2058,10 @@
     </row>
     <row r="17" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2093,10 +2090,10 @@
     </row>
     <row r="18" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2125,10 +2122,10 @@
     </row>
     <row r="19" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2157,10 +2154,10 @@
     </row>
     <row r="20" spans="1:26" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2189,10 +2186,10 @@
     </row>
     <row r="21" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -2251,10 +2248,10 @@
     </row>
     <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -2283,10 +2280,10 @@
     </row>
     <row r="24" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2315,10 +2312,10 @@
     </row>
     <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2347,10 +2344,10 @@
     </row>
     <row r="26" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -2379,10 +2376,10 @@
     </row>
     <row r="27" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2411,10 +2408,10 @@
     </row>
     <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2443,10 +2440,10 @@
     </row>
     <row r="29" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2475,10 +2472,10 @@
     </row>
     <row r="30" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -2507,10 +2504,10 @@
     </row>
     <row r="31" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -2539,10 +2536,10 @@
     </row>
     <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2571,7 +2568,7 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -2601,10 +2598,10 @@
     </row>
     <row r="34" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -2633,10 +2630,10 @@
     </row>
     <row r="35" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2665,10 +2662,10 @@
     </row>
     <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -2697,17 +2694,15 @@
     </row>
     <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="15" t="s">
-        <v>88</v>
+      <c r="B37" s="22" t="s">
+        <v>84</v>
       </c>
+      <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="F37" s="16"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2731,17 +2726,15 @@
     </row>
     <row r="38" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="15" t="s">
-        <v>88</v>
+      <c r="B38" s="22" t="s">
+        <v>84</v>
       </c>
+      <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2765,10 +2758,10 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2797,10 +2790,10 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2829,10 +2822,10 @@
     </row>
     <row r="41" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -2861,7 +2854,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -2891,10 +2884,10 @@
     </row>
     <row r="43" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -2923,10 +2916,10 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -2955,10 +2948,10 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -2987,10 +2980,10 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -3019,10 +3012,10 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -3051,10 +3044,10 @@
     </row>
     <row r="48" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -3083,10 +3076,10 @@
     </row>
     <row r="49" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -3115,10 +3108,10 @@
     </row>
     <row r="50" spans="1:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -3147,10 +3140,10 @@
     </row>
     <row r="51" spans="1:26" ht="44.25" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -3179,10 +3172,10 @@
     </row>
     <row r="52" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -3211,10 +3204,10 @@
     </row>
     <row r="53" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -3243,10 +3236,10 @@
     </row>
     <row r="54" spans="1:26" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -3303,7 +3296,7 @@
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -3333,7 +3326,7 @@
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -3363,7 +3356,7 @@
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -3393,7 +3386,7 @@
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -29828,7 +29821,7 @@
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="37"/>
       <c r="B2" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -29914,7 +29907,7 @@
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36"/>
       <c r="B5" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -29972,7 +29965,7 @@
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -30030,7 +30023,7 @@
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -30060,7 +30053,7 @@
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -30146,7 +30139,7 @@
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -30176,7 +30169,7 @@
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -30682,7 +30675,7 @@
     <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
@@ -30712,7 +30705,7 @@
     <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -30742,7 +30735,7 @@
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
@@ -31164,7 +31157,7 @@
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -31194,7 +31187,7 @@
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -31560,7 +31553,7 @@
     <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="36"/>
       <c r="B63" s="40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
@@ -31590,7 +31583,7 @@
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
@@ -31984,7 +31977,7 @@
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="36"/>
       <c r="B78" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
@@ -32770,7 +32763,7 @@
     <row r="106" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="36"/>
       <c r="B106" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
@@ -32800,7 +32793,7 @@
     <row r="107" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="36"/>
       <c r="B107" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
@@ -33306,7 +33299,7 @@
     <row r="125" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="36"/>
       <c r="B125" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C125" s="36"/>
       <c r="D125" s="36"/>
@@ -33336,7 +33329,7 @@
     <row r="126" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="36"/>
       <c r="B126" s="41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C126" s="36"/>
       <c r="D126" s="36"/>
@@ -33870,7 +33863,7 @@
     <row r="145" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="36"/>
       <c r="B145" s="41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C145" s="36"/>
       <c r="D145" s="36"/>
@@ -34180,7 +34173,7 @@
     <row r="156" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="36"/>
       <c r="B156" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C156" s="36"/>
       <c r="D156" s="36"/>
@@ -34210,7 +34203,7 @@
     <row r="157" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="36"/>
       <c r="B157" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C157" s="36"/>
       <c r="D157" s="36"/>
@@ -34744,7 +34737,7 @@
     <row r="176" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="36"/>
       <c r="B176" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C176" s="36"/>
       <c r="D176" s="36"/>
@@ -34774,7 +34767,7 @@
     <row r="177" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="36"/>
       <c r="B177" s="41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C177" s="36"/>
       <c r="D177" s="36"/>
@@ -34804,7 +34797,7 @@
     <row r="178" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="36"/>
       <c r="B178" s="41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C178" s="36"/>
       <c r="D178" s="36"/>
@@ -34834,7 +34827,7 @@
     <row r="179" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="36"/>
       <c r="B179" s="41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C179" s="36"/>
       <c r="D179" s="36"/>
@@ -34864,7 +34857,7 @@
     <row r="180" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="36"/>
       <c r="B180" s="41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C180" s="36"/>
       <c r="D180" s="36"/>
